--- a/data2.xlsx
+++ b/data2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$AK$176</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Full-Scope'!$P$1:$P$249</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Full-Scope'!$U$1:$U$249</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16505" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16622" uniqueCount="577">
   <si>
     <t>1. What is your current cumulative GPA (on a percentage scale)? Example: 75%</t>
   </si>
@@ -33769,11 +33769,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AP249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V275" sqref="V275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="14.25"/>
@@ -35549,7 +35549,9 @@
       <c r="U14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V14" s="4"/>
+      <c r="V14" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W14" s="4" t="s">
         <v>47</v>
       </c>
@@ -35936,7 +35938,9 @@
       <c r="U17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V17" s="4"/>
+      <c r="V17" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W17" s="4" t="s">
         <v>47</v>
       </c>
@@ -36065,7 +36069,9 @@
       <c r="U18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V18" s="4"/>
+      <c r="V18" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W18" s="4" t="s">
         <v>47</v>
       </c>
@@ -36194,7 +36200,9 @@
       <c r="U19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V19" s="4"/>
+      <c r="V19" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W19" s="4" t="s">
         <v>47</v>
       </c>
@@ -36323,7 +36331,9 @@
       <c r="U20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V20" s="4"/>
+      <c r="V20" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W20" s="4" t="s">
         <v>47</v>
       </c>
@@ -36581,7 +36591,9 @@
       <c r="U22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V22" s="4"/>
+      <c r="V22" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W22" s="4" t="s">
         <v>47</v>
       </c>
@@ -36710,7 +36722,9 @@
       <c r="U23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V23" s="4"/>
+      <c r="V23" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W23" s="4" t="s">
         <v>47</v>
       </c>
@@ -36839,7 +36853,9 @@
       <c r="U24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V24" s="4"/>
+      <c r="V24" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W24" s="4" t="s">
         <v>47</v>
       </c>
@@ -36968,7 +36984,9 @@
       <c r="U25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V25" s="4"/>
+      <c r="V25" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W25" s="4" t="s">
         <v>47</v>
       </c>
@@ -37097,7 +37115,9 @@
       <c r="U26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V26" s="4"/>
+      <c r="V26" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W26" s="4" t="s">
         <v>47</v>
       </c>
@@ -37226,7 +37246,9 @@
       <c r="U27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V27" s="4"/>
+      <c r="V27" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W27" s="4" t="s">
         <v>47</v>
       </c>
@@ -37355,7 +37377,9 @@
       <c r="U28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V28" s="4"/>
+      <c r="V28" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W28" s="4" t="s">
         <v>47</v>
       </c>
@@ -37484,7 +37508,9 @@
       <c r="U29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V29" s="4"/>
+      <c r="V29" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W29" s="4" t="s">
         <v>47</v>
       </c>
@@ -37613,7 +37639,9 @@
       <c r="U30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V30" s="4"/>
+      <c r="V30" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W30" s="4" t="s">
         <v>47</v>
       </c>
@@ -38000,7 +38028,9 @@
       <c r="U33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V33" s="4"/>
+      <c r="V33" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W33" s="4" t="s">
         <v>47</v>
       </c>
@@ -38387,7 +38417,9 @@
       <c r="U36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V36" s="4"/>
+      <c r="V36" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W36" s="4" t="s">
         <v>47</v>
       </c>
@@ -38516,7 +38548,9 @@
       <c r="U37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V37" s="4"/>
+      <c r="V37" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W37" s="4" t="s">
         <v>47</v>
       </c>
@@ -38645,7 +38679,9 @@
       <c r="U38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V38" s="4"/>
+      <c r="V38" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W38" s="4" t="s">
         <v>47</v>
       </c>
@@ -38774,7 +38810,9 @@
       <c r="U39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V39" s="4"/>
+      <c r="V39" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W39" s="4" t="s">
         <v>47</v>
       </c>
@@ -39032,7 +39070,9 @@
       <c r="U41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V41" s="4"/>
+      <c r="V41" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W41" s="4" t="s">
         <v>47</v>
       </c>
@@ -39161,7 +39201,9 @@
       <c r="U42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V42" s="4"/>
+      <c r="V42" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W42" s="4" t="s">
         <v>47</v>
       </c>
@@ -39290,7 +39332,9 @@
       <c r="U43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V43" s="4"/>
+      <c r="V43" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W43" s="4" t="s">
         <v>47</v>
       </c>
@@ -39548,7 +39592,9 @@
       <c r="U45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V45" s="4"/>
+      <c r="V45" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W45" s="4" t="s">
         <v>47</v>
       </c>
@@ -39677,7 +39723,9 @@
       <c r="U46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V46" s="4"/>
+      <c r="V46" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W46" s="4" t="s">
         <v>47</v>
       </c>
@@ -40193,7 +40241,9 @@
       <c r="U50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V50" s="4"/>
+      <c r="V50" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W50" s="4" t="s">
         <v>47</v>
       </c>
@@ -40322,7 +40372,9 @@
       <c r="U51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V51" s="4"/>
+      <c r="V51" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W51" s="4" t="s">
         <v>47</v>
       </c>
@@ -40451,7 +40503,9 @@
       <c r="U52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V52" s="4"/>
+      <c r="V52" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W52" s="4" t="s">
         <v>47</v>
       </c>
@@ -40580,7 +40634,9 @@
       <c r="U53" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V53" s="4"/>
+      <c r="V53" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W53" s="4" t="s">
         <v>47</v>
       </c>
@@ -40709,7 +40765,9 @@
       <c r="U54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V54" s="4"/>
+      <c r="V54" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W54" s="4" t="s">
         <v>47</v>
       </c>
@@ -40838,7 +40896,9 @@
       <c r="U55" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V55" s="4"/>
+      <c r="V55" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W55" s="4" t="s">
         <v>47</v>
       </c>
@@ -40967,7 +41027,9 @@
       <c r="U56" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V56" s="4"/>
+      <c r="V56" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W56" s="4" t="s">
         <v>47</v>
       </c>
@@ -41483,7 +41545,9 @@
       <c r="U60" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V60" s="4"/>
+      <c r="V60" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W60" s="4" t="s">
         <v>47</v>
       </c>
@@ -41612,7 +41676,9 @@
       <c r="U61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V61" s="4"/>
+      <c r="V61" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W61" s="4" t="s">
         <v>47</v>
       </c>
@@ -41741,7 +41807,9 @@
       <c r="U62" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V62" s="4"/>
+      <c r="V62" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W62" s="4" t="s">
         <v>47</v>
       </c>
@@ -41870,7 +41938,9 @@
       <c r="U63" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V63" s="4"/>
+      <c r="V63" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W63" s="4" t="s">
         <v>47</v>
       </c>
@@ -42128,7 +42198,9 @@
       <c r="U65" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V65" s="4"/>
+      <c r="V65" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W65" s="4" t="s">
         <v>47</v>
       </c>
@@ -42257,7 +42329,9 @@
       <c r="U66" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V66" s="4"/>
+      <c r="V66" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W66" s="4" t="s">
         <v>47</v>
       </c>
@@ -42386,7 +42460,9 @@
       <c r="U67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V67" s="4"/>
+      <c r="V67" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W67" s="4" t="s">
         <v>47</v>
       </c>
@@ -42515,7 +42591,9 @@
       <c r="U68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V68" s="4"/>
+      <c r="V68" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W68" s="4" t="s">
         <v>47</v>
       </c>
@@ -42644,7 +42722,9 @@
       <c r="U69" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V69" s="4"/>
+      <c r="V69" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W69" s="4" t="s">
         <v>47</v>
       </c>
@@ -42902,7 +42982,9 @@
       <c r="U71" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V71" s="4"/>
+      <c r="V71" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W71" s="4" t="s">
         <v>47</v>
       </c>
@@ -43031,7 +43113,9 @@
       <c r="U72" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V72" s="4"/>
+      <c r="V72" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W72" s="4" t="s">
         <v>47</v>
       </c>
@@ -43418,7 +43502,9 @@
       <c r="U75" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V75" s="4"/>
+      <c r="V75" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W75" s="4" t="s">
         <v>47</v>
       </c>
@@ -43547,7 +43633,9 @@
       <c r="U76" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V76" s="4"/>
+      <c r="V76" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W76" s="4" t="s">
         <v>47</v>
       </c>
@@ -43676,7 +43764,9 @@
       <c r="U77" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V77" s="4"/>
+      <c r="V77" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W77" s="4" t="s">
         <v>47</v>
       </c>
@@ -43805,7 +43895,9 @@
       <c r="U78" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V78" s="4"/>
+      <c r="V78" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W78" s="4" t="s">
         <v>47</v>
       </c>
@@ -43934,7 +44026,9 @@
       <c r="U79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V79" s="4"/>
+      <c r="V79" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W79" s="4" t="s">
         <v>47</v>
       </c>
@@ -44063,7 +44157,9 @@
       <c r="U80" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V80" s="4"/>
+      <c r="V80" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W80" s="4" t="s">
         <v>47</v>
       </c>
@@ -44192,7 +44288,9 @@
       <c r="U81" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V81" s="4"/>
+      <c r="V81" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W81" s="4" t="s">
         <v>47</v>
       </c>
@@ -44321,7 +44419,9 @@
       <c r="U82" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V82" s="4"/>
+      <c r="V82" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W82" s="4" t="s">
         <v>47</v>
       </c>
@@ -44450,7 +44550,9 @@
       <c r="U83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V83" s="4"/>
+      <c r="V83" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W83" s="4" t="s">
         <v>47</v>
       </c>
@@ -44579,7 +44681,9 @@
       <c r="U84" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V84" s="4"/>
+      <c r="V84" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W84" s="4" t="s">
         <v>47</v>
       </c>
@@ -44708,7 +44812,9 @@
       <c r="U85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V85" s="4"/>
+      <c r="V85" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W85" s="4" t="s">
         <v>47</v>
       </c>
@@ -44837,7 +44943,9 @@
       <c r="U86" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V86" s="4"/>
+      <c r="V86" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W86" s="4" t="s">
         <v>47</v>
       </c>
@@ -44966,7 +45074,9 @@
       <c r="U87" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V87" s="4"/>
+      <c r="V87" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W87" s="4" t="s">
         <v>47</v>
       </c>
@@ -45095,7 +45205,9 @@
       <c r="U88" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V88" s="4"/>
+      <c r="V88" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W88" s="4" t="s">
         <v>47</v>
       </c>
@@ -45224,7 +45336,9 @@
       <c r="U89" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V89" s="4"/>
+      <c r="V89" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W89" s="4" t="s">
         <v>47</v>
       </c>
@@ -45353,7 +45467,9 @@
       <c r="U90" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V90" s="4"/>
+      <c r="V90" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W90" s="4" t="s">
         <v>47</v>
       </c>
@@ -45482,7 +45598,9 @@
       <c r="U91" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V91" s="4"/>
+      <c r="V91" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W91" s="4" t="s">
         <v>47</v>
       </c>
@@ -45611,7 +45729,9 @@
       <c r="U92" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V92" s="4"/>
+      <c r="V92" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W92" s="4" t="s">
         <v>47</v>
       </c>
@@ -45740,7 +45860,9 @@
       <c r="U93" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V93" s="4"/>
+      <c r="V93" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W93" s="4" t="s">
         <v>47</v>
       </c>
@@ -45869,7 +45991,9 @@
       <c r="U94" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V94" s="4"/>
+      <c r="V94" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W94" s="4" t="s">
         <v>47</v>
       </c>
@@ -46127,7 +46251,9 @@
       <c r="U96" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V96" s="4"/>
+      <c r="V96" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W96" s="4" t="s">
         <v>47</v>
       </c>
@@ -46256,7 +46382,9 @@
       <c r="U97" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V97" s="4"/>
+      <c r="V97" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W97" s="4" t="s">
         <v>47</v>
       </c>
@@ -46385,7 +46513,9 @@
       <c r="U98" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V98" s="4"/>
+      <c r="V98" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W98" s="4" t="s">
         <v>47</v>
       </c>
@@ -46514,7 +46644,9 @@
       <c r="U99" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V99" s="4"/>
+      <c r="V99" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W99" s="4" t="s">
         <v>47</v>
       </c>
@@ -46643,7 +46775,9 @@
       <c r="U100" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V100" s="4"/>
+      <c r="V100" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W100" s="4" t="s">
         <v>47</v>
       </c>
@@ -46772,7 +46906,9 @@
       <c r="U101" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V101" s="4"/>
+      <c r="V101" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W101" s="4" t="s">
         <v>47</v>
       </c>
@@ -46901,7 +47037,9 @@
       <c r="U102" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V102" s="4"/>
+      <c r="V102" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W102" s="4" t="s">
         <v>47</v>
       </c>
@@ -47159,7 +47297,9 @@
       <c r="U104" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V104" s="4"/>
+      <c r="V104" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W104" s="4" t="s">
         <v>47</v>
       </c>
@@ -47546,7 +47686,9 @@
       <c r="U107" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V107" s="4"/>
+      <c r="V107" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W107" s="4" t="s">
         <v>47</v>
       </c>
@@ -47933,7 +48075,9 @@
       <c r="U110" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V110" s="4"/>
+      <c r="V110" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W110" s="4" t="s">
         <v>47</v>
       </c>
@@ -48191,7 +48335,9 @@
       <c r="U112" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V112" s="4"/>
+      <c r="V112" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W112" s="4" t="s">
         <v>47</v>
       </c>
@@ -48320,7 +48466,9 @@
       <c r="U113" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V113" s="4"/>
+      <c r="V113" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W113" s="4" t="s">
         <v>47</v>
       </c>
@@ -48578,7 +48726,9 @@
       <c r="U115" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V115" s="4"/>
+      <c r="V115" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W115" s="4" t="s">
         <v>47</v>
       </c>
@@ -48707,7 +48857,9 @@
       <c r="U116" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V116" s="4"/>
+      <c r="V116" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W116" s="4" t="s">
         <v>47</v>
       </c>
@@ -48836,7 +48988,9 @@
       <c r="U117" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V117" s="4"/>
+      <c r="V117" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W117" s="4" t="s">
         <v>47</v>
       </c>
@@ -48965,7 +49119,9 @@
       <c r="U118" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V118" s="4"/>
+      <c r="V118" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W118" s="4" t="s">
         <v>47</v>
       </c>
@@ -49223,7 +49379,9 @@
       <c r="U120" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V120" s="4"/>
+      <c r="V120" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W120" s="4" t="s">
         <v>47</v>
       </c>
@@ -49352,7 +49510,9 @@
       <c r="U121" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V121" s="4"/>
+      <c r="V121" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W121" s="4" t="s">
         <v>47</v>
       </c>
@@ -49610,7 +49770,9 @@
       <c r="U123" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V123" s="4"/>
+      <c r="V123" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W123" s="4" t="s">
         <v>47</v>
       </c>
@@ -49739,7 +49901,9 @@
       <c r="U124" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V124" s="4"/>
+      <c r="V124" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W124" s="4" t="s">
         <v>47</v>
       </c>
@@ -49997,7 +50161,9 @@
       <c r="U126" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V126" s="4"/>
+      <c r="V126" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W126" s="4" t="s">
         <v>47</v>
       </c>
@@ -50384,7 +50550,9 @@
       <c r="U129" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V129" s="4"/>
+      <c r="V129" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W129" s="4" t="s">
         <v>47</v>
       </c>
@@ -50513,7 +50681,9 @@
       <c r="U130" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V130" s="4"/>
+      <c r="V130" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W130" s="4" t="s">
         <v>47</v>
       </c>
@@ -50642,7 +50812,9 @@
       <c r="U131" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V131" s="4"/>
+      <c r="V131" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W131" s="4" t="s">
         <v>47</v>
       </c>
@@ -50771,7 +50943,9 @@
       <c r="U132" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V132" s="4"/>
+      <c r="V132" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W132" s="4" t="s">
         <v>47</v>
       </c>
@@ -50900,7 +51074,9 @@
       <c r="U133" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V133" s="4"/>
+      <c r="V133" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W133" s="4" t="s">
         <v>47</v>
       </c>
@@ -51029,7 +51205,9 @@
       <c r="U134" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V134" s="4"/>
+      <c r="V134" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W134" s="4" t="s">
         <v>47</v>
       </c>
@@ -51158,7 +51336,9 @@
       <c r="U135" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V135" s="4"/>
+      <c r="V135" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W135" s="4" t="s">
         <v>47</v>
       </c>
@@ -51287,7 +51467,9 @@
       <c r="U136" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V136" s="4"/>
+      <c r="V136" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W136" s="4" t="s">
         <v>47</v>
       </c>
@@ -51545,7 +51727,9 @@
       <c r="U138" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V138" s="4"/>
+      <c r="V138" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W138" s="4" t="s">
         <v>47</v>
       </c>
@@ -51803,7 +51987,9 @@
       <c r="U140" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V140" s="4"/>
+      <c r="V140" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W140" s="4" t="s">
         <v>47</v>
       </c>
@@ -51932,7 +52118,9 @@
       <c r="U141" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V141" s="4"/>
+      <c r="V141" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W141" s="4" t="s">
         <v>47</v>
       </c>
@@ -52061,7 +52249,9 @@
       <c r="U142" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V142" s="4"/>
+      <c r="V142" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W142" s="4" t="s">
         <v>47</v>
       </c>
@@ -52448,7 +52638,9 @@
       <c r="U145" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V145" s="4"/>
+      <c r="V145" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W145" s="4" t="s">
         <v>47</v>
       </c>
@@ -52577,7 +52769,9 @@
       <c r="U146" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V146" s="4"/>
+      <c r="V146" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W146" s="4" t="s">
         <v>47</v>
       </c>
@@ -52835,7 +53029,9 @@
       <c r="U148" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V148" s="4"/>
+      <c r="V148" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W148" s="4" t="s">
         <v>47</v>
       </c>
@@ -52964,7 +53160,9 @@
       <c r="U149" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V149" s="4"/>
+      <c r="V149" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W149" s="4" t="s">
         <v>47</v>
       </c>
@@ -53093,7 +53291,9 @@
       <c r="U150" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V150" s="4"/>
+      <c r="V150" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W150" s="4" t="s">
         <v>47</v>
       </c>
@@ -53222,7 +53422,9 @@
       <c r="U151" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V151" s="4"/>
+      <c r="V151" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W151" s="4" t="s">
         <v>47</v>
       </c>
@@ -53351,7 +53553,9 @@
       <c r="U152" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V152" s="4"/>
+      <c r="V152" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W152" s="4" t="s">
         <v>47</v>
       </c>
@@ -53480,7 +53684,9 @@
       <c r="U153" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V153" s="4"/>
+      <c r="V153" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W153" s="4" t="s">
         <v>47</v>
       </c>
@@ -53609,7 +53815,9 @@
       <c r="U154" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V154" s="4"/>
+      <c r="V154" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W154" s="4" t="s">
         <v>47</v>
       </c>
@@ -53738,7 +53946,9 @@
       <c r="U155" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V155" s="4"/>
+      <c r="V155" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W155" s="4" t="s">
         <v>47</v>
       </c>
@@ -53867,7 +54077,9 @@
       <c r="U156" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V156" s="4"/>
+      <c r="V156" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W156" s="4" t="s">
         <v>47</v>
       </c>
@@ -53996,7 +54208,9 @@
       <c r="U157" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V157" s="4"/>
+      <c r="V157" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W157" s="4" t="s">
         <v>47</v>
       </c>
@@ -54125,7 +54339,9 @@
       <c r="U158" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V158" s="4"/>
+      <c r="V158" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W158" s="4" t="s">
         <v>47</v>
       </c>
@@ -54383,7 +54599,9 @@
       <c r="U160" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V160" s="4"/>
+      <c r="V160" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W160" s="4" t="s">
         <v>47</v>
       </c>
@@ -54512,7 +54730,9 @@
       <c r="U161" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V161" s="4"/>
+      <c r="V161" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W161" s="4" t="s">
         <v>47</v>
       </c>
@@ -54641,7 +54861,9 @@
       <c r="U162" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V162" s="4"/>
+      <c r="V162" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W162" s="4" t="s">
         <v>47</v>
       </c>
@@ -54770,7 +54992,9 @@
       <c r="U163" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V163" s="4"/>
+      <c r="V163" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W163" s="4" t="s">
         <v>47</v>
       </c>
@@ -54899,7 +55123,9 @@
       <c r="U164" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V164" s="4"/>
+      <c r="V164" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W164" s="4" t="s">
         <v>47</v>
       </c>
@@ -55028,7 +55254,9 @@
       <c r="U165" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V165" s="4"/>
+      <c r="V165" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W165" s="4" t="s">
         <v>47</v>
       </c>
@@ -55157,7 +55385,9 @@
       <c r="U166" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V166" s="4"/>
+      <c r="V166" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W166" s="4" t="s">
         <v>47</v>
       </c>
@@ -55286,7 +55516,9 @@
       <c r="U167" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V167" s="4"/>
+      <c r="V167" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W167" s="4" t="s">
         <v>47</v>
       </c>
@@ -55544,7 +55776,9 @@
       <c r="U169" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="V169" s="4"/>
+      <c r="V169" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="W169" s="4" t="s">
         <v>47</v>
       </c>
@@ -55609,375 +55843,382 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="28:33">
+    <row r="170" hidden="1" spans="28:33">
       <c r="AB170" s="8"/>
       <c r="AD170" s="8"/>
       <c r="AG170" s="8"/>
     </row>
-    <row r="171" spans="22:33">
+    <row r="171" hidden="1" spans="22:33">
       <c r="V171" s="4"/>
       <c r="AB171" s="8"/>
       <c r="AD171" s="8"/>
       <c r="AG171" s="8"/>
     </row>
-    <row r="172" spans="28:33">
+    <row r="172" hidden="1" spans="28:33">
       <c r="AB172" s="8"/>
       <c r="AD172" s="8"/>
       <c r="AG172" s="8"/>
     </row>
-    <row r="173" spans="28:33">
+    <row r="173" hidden="1" spans="28:33">
       <c r="AB173" s="8"/>
       <c r="AD173" s="8"/>
       <c r="AG173" s="8"/>
     </row>
-    <row r="174" spans="28:33">
+    <row r="174" hidden="1" spans="28:33">
       <c r="AB174" s="8"/>
       <c r="AD174" s="8"/>
       <c r="AG174" s="8"/>
     </row>
-    <row r="175" spans="28:33">
+    <row r="175" hidden="1" spans="28:33">
       <c r="AB175" s="8"/>
       <c r="AD175" s="8"/>
       <c r="AG175" s="8"/>
     </row>
-    <row r="176" spans="28:33">
+    <row r="176" hidden="1" spans="28:33">
       <c r="AB176" s="8"/>
       <c r="AD176" s="8"/>
       <c r="AG176" s="8"/>
     </row>
-    <row r="177" spans="28:33">
+    <row r="177" hidden="1" spans="28:33">
       <c r="AB177" s="8"/>
       <c r="AD177" s="8"/>
       <c r="AG177" s="8"/>
     </row>
-    <row r="178" spans="28:33">
+    <row r="178" hidden="1" spans="28:33">
       <c r="AB178" s="8"/>
       <c r="AD178" s="8"/>
       <c r="AG178" s="8"/>
     </row>
-    <row r="179" spans="28:33">
+    <row r="179" hidden="1" spans="28:33">
       <c r="AB179" s="8"/>
       <c r="AD179" s="8"/>
       <c r="AG179" s="8"/>
     </row>
-    <row r="180" spans="28:33">
+    <row r="180" hidden="1" spans="28:33">
       <c r="AB180" s="8"/>
       <c r="AD180" s="8"/>
       <c r="AG180" s="8"/>
     </row>
-    <row r="181" spans="28:33">
+    <row r="181" hidden="1" spans="28:33">
       <c r="AB181" s="8"/>
       <c r="AD181" s="8"/>
       <c r="AG181" s="8"/>
     </row>
-    <row r="182" spans="28:33">
+    <row r="182" hidden="1" spans="28:33">
       <c r="AB182" s="8"/>
       <c r="AD182" s="8"/>
       <c r="AG182" s="8"/>
     </row>
-    <row r="183" spans="28:33">
+    <row r="183" hidden="1" spans="28:33">
       <c r="AB183" s="8"/>
       <c r="AD183" s="8"/>
       <c r="AG183" s="8"/>
     </row>
-    <row r="184" spans="28:33">
+    <row r="184" hidden="1" spans="28:33">
       <c r="AB184" s="8"/>
       <c r="AD184" s="8"/>
       <c r="AG184" s="8"/>
     </row>
-    <row r="185" spans="28:33">
+    <row r="185" hidden="1" spans="28:33">
       <c r="AB185" s="8"/>
       <c r="AD185" s="8"/>
       <c r="AG185" s="8"/>
     </row>
-    <row r="186" spans="28:33">
+    <row r="186" hidden="1" spans="28:33">
       <c r="AB186" s="8"/>
       <c r="AD186" s="8"/>
       <c r="AG186" s="8"/>
     </row>
-    <row r="187" spans="28:33">
+    <row r="187" hidden="1" spans="28:33">
       <c r="AB187" s="8"/>
       <c r="AD187" s="8"/>
       <c r="AG187" s="8"/>
     </row>
-    <row r="188" spans="28:33">
+    <row r="188" hidden="1" spans="28:33">
       <c r="AB188" s="8"/>
       <c r="AD188" s="8"/>
       <c r="AG188" s="8"/>
     </row>
-    <row r="189" spans="28:33">
+    <row r="189" hidden="1" spans="28:33">
       <c r="AB189" s="8"/>
       <c r="AD189" s="8"/>
       <c r="AG189" s="8"/>
     </row>
-    <row r="190" spans="28:33">
+    <row r="190" hidden="1" spans="28:33">
       <c r="AB190" s="8"/>
       <c r="AD190" s="8"/>
       <c r="AG190" s="8"/>
     </row>
-    <row r="191" spans="28:33">
+    <row r="191" hidden="1" spans="28:33">
       <c r="AB191" s="8"/>
       <c r="AD191" s="8"/>
       <c r="AG191" s="8"/>
     </row>
-    <row r="192" spans="28:33">
+    <row r="192" hidden="1" spans="28:33">
       <c r="AB192" s="8"/>
       <c r="AD192" s="8"/>
       <c r="AG192" s="8"/>
     </row>
-    <row r="193" spans="28:33">
+    <row r="193" hidden="1" spans="28:33">
       <c r="AB193" s="8"/>
       <c r="AD193" s="8"/>
       <c r="AG193" s="8"/>
     </row>
-    <row r="194" spans="28:33">
+    <row r="194" hidden="1" spans="28:33">
       <c r="AB194" s="8"/>
       <c r="AD194" s="8"/>
       <c r="AG194" s="8"/>
     </row>
-    <row r="195" spans="28:33">
+    <row r="195" hidden="1" spans="28:33">
       <c r="AB195" s="8"/>
       <c r="AD195" s="8"/>
       <c r="AG195" s="8"/>
     </row>
-    <row r="196" spans="28:33">
+    <row r="196" hidden="1" spans="28:33">
       <c r="AB196" s="8"/>
       <c r="AD196" s="8"/>
       <c r="AG196" s="8"/>
     </row>
-    <row r="197" spans="28:33">
+    <row r="197" hidden="1" spans="28:33">
       <c r="AB197" s="8"/>
       <c r="AD197" s="8"/>
       <c r="AG197" s="8"/>
     </row>
-    <row r="198" spans="28:33">
+    <row r="198" hidden="1" spans="28:33">
       <c r="AB198" s="8"/>
       <c r="AD198" s="8"/>
       <c r="AG198" s="8"/>
     </row>
-    <row r="199" spans="28:33">
+    <row r="199" hidden="1" spans="28:33">
       <c r="AB199" s="8"/>
       <c r="AD199" s="8"/>
       <c r="AG199" s="8"/>
     </row>
-    <row r="200" spans="28:33">
+    <row r="200" hidden="1" spans="28:33">
       <c r="AB200" s="8"/>
       <c r="AD200" s="8"/>
       <c r="AG200" s="8"/>
     </row>
-    <row r="201" spans="28:33">
+    <row r="201" hidden="1" spans="28:33">
       <c r="AB201" s="8"/>
       <c r="AD201" s="8"/>
       <c r="AG201" s="8"/>
     </row>
-    <row r="202" spans="28:33">
+    <row r="202" hidden="1" spans="28:33">
       <c r="AB202" s="8"/>
       <c r="AD202" s="8"/>
       <c r="AG202" s="8"/>
     </row>
-    <row r="203" spans="28:33">
+    <row r="203" hidden="1" spans="28:33">
       <c r="AB203" s="8"/>
       <c r="AD203" s="8"/>
       <c r="AG203" s="8"/>
     </row>
-    <row r="204" spans="28:33">
+    <row r="204" hidden="1" spans="28:33">
       <c r="AB204" s="8"/>
       <c r="AD204" s="8"/>
       <c r="AG204" s="8"/>
     </row>
-    <row r="205" spans="28:33">
+    <row r="205" hidden="1" spans="28:33">
       <c r="AB205" s="8"/>
       <c r="AD205" s="8"/>
       <c r="AG205" s="8"/>
     </row>
-    <row r="206" spans="28:33">
+    <row r="206" hidden="1" spans="28:33">
       <c r="AB206" s="8"/>
       <c r="AD206" s="8"/>
       <c r="AG206" s="8"/>
     </row>
-    <row r="207" spans="28:33">
+    <row r="207" hidden="1" spans="28:33">
       <c r="AB207" s="8"/>
       <c r="AD207" s="8"/>
       <c r="AG207" s="8"/>
     </row>
-    <row r="208" spans="28:33">
+    <row r="208" hidden="1" spans="28:33">
       <c r="AB208" s="8"/>
       <c r="AD208" s="8"/>
       <c r="AG208" s="8"/>
     </row>
-    <row r="209" spans="28:33">
+    <row r="209" hidden="1" spans="28:33">
       <c r="AB209" s="8"/>
       <c r="AD209" s="8"/>
       <c r="AG209" s="8"/>
     </row>
-    <row r="210" spans="28:33">
+    <row r="210" hidden="1" spans="28:33">
       <c r="AB210" s="8"/>
       <c r="AD210" s="8"/>
       <c r="AG210" s="8"/>
     </row>
-    <row r="211" spans="28:33">
+    <row r="211" hidden="1" spans="28:33">
       <c r="AB211" s="8"/>
       <c r="AD211" s="8"/>
       <c r="AG211" s="8"/>
     </row>
-    <row r="212" spans="28:33">
+    <row r="212" hidden="1" spans="28:33">
       <c r="AB212" s="8"/>
       <c r="AD212" s="8"/>
       <c r="AG212" s="8"/>
     </row>
-    <row r="213" spans="28:33">
+    <row r="213" hidden="1" spans="28:33">
       <c r="AB213" s="8"/>
       <c r="AD213" s="8"/>
       <c r="AG213" s="8"/>
     </row>
-    <row r="214" spans="28:33">
+    <row r="214" hidden="1" spans="28:33">
       <c r="AB214" s="8"/>
       <c r="AD214" s="8"/>
       <c r="AG214" s="8"/>
     </row>
-    <row r="215" spans="28:33">
+    <row r="215" hidden="1" spans="28:33">
       <c r="AB215" s="8"/>
       <c r="AD215" s="8"/>
       <c r="AG215" s="8"/>
     </row>
-    <row r="216" spans="28:33">
+    <row r="216" hidden="1" spans="28:33">
       <c r="AB216" s="8"/>
       <c r="AD216" s="8"/>
       <c r="AG216" s="8"/>
     </row>
-    <row r="217" spans="28:33">
+    <row r="217" hidden="1" spans="28:33">
       <c r="AB217" s="8"/>
       <c r="AD217" s="8"/>
       <c r="AG217" s="8"/>
     </row>
-    <row r="218" spans="28:33">
+    <row r="218" hidden="1" spans="28:33">
       <c r="AB218" s="8"/>
       <c r="AD218" s="8"/>
       <c r="AG218" s="8"/>
     </row>
-    <row r="219" spans="28:33">
+    <row r="219" hidden="1" spans="28:33">
       <c r="AB219" s="8"/>
       <c r="AD219" s="8"/>
       <c r="AG219" s="8"/>
     </row>
-    <row r="220" spans="28:33">
+    <row r="220" hidden="1" spans="28:33">
       <c r="AB220" s="8"/>
       <c r="AD220" s="8"/>
       <c r="AG220" s="8"/>
     </row>
-    <row r="221" spans="28:33">
+    <row r="221" hidden="1" spans="28:33">
       <c r="AB221" s="8"/>
       <c r="AD221" s="8"/>
       <c r="AG221" s="8"/>
     </row>
-    <row r="222" spans="28:33">
+    <row r="222" hidden="1" spans="28:33">
       <c r="AB222" s="8"/>
       <c r="AD222" s="8"/>
       <c r="AG222" s="8"/>
     </row>
-    <row r="223" spans="28:33">
+    <row r="223" hidden="1" spans="28:33">
       <c r="AB223" s="8"/>
       <c r="AD223" s="8"/>
       <c r="AG223" s="8"/>
     </row>
-    <row r="224" spans="28:33">
+    <row r="224" hidden="1" spans="28:33">
       <c r="AB224" s="8"/>
       <c r="AD224" s="8"/>
       <c r="AG224" s="8"/>
     </row>
-    <row r="225" spans="28:33">
+    <row r="225" hidden="1" spans="28:33">
       <c r="AB225" s="8"/>
       <c r="AD225" s="8"/>
       <c r="AG225" s="8"/>
     </row>
-    <row r="226" spans="28:33">
+    <row r="226" hidden="1" spans="28:33">
       <c r="AB226" s="8"/>
       <c r="AD226" s="8"/>
       <c r="AG226" s="8"/>
     </row>
-    <row r="227" spans="28:30">
+    <row r="227" hidden="1" spans="28:30">
       <c r="AB227" s="8"/>
       <c r="AD227" s="8"/>
     </row>
-    <row r="228" spans="28:30">
+    <row r="228" hidden="1" spans="28:30">
       <c r="AB228" s="8"/>
       <c r="AD228" s="8"/>
     </row>
-    <row r="229" spans="28:30">
+    <row r="229" hidden="1" spans="28:30">
       <c r="AB229" s="8"/>
       <c r="AD229" s="8"/>
     </row>
-    <row r="230" spans="28:30">
+    <row r="230" hidden="1" spans="28:30">
       <c r="AB230" s="8"/>
       <c r="AD230" s="8"/>
     </row>
-    <row r="231" spans="28:30">
+    <row r="231" hidden="1" spans="28:30">
       <c r="AB231" s="8"/>
       <c r="AD231" s="8"/>
     </row>
-    <row r="232" spans="28:30">
+    <row r="232" hidden="1" spans="28:30">
       <c r="AB232" s="8"/>
       <c r="AD232" s="8"/>
     </row>
-    <row r="233" spans="28:30">
+    <row r="233" hidden="1" spans="28:30">
       <c r="AB233" s="8"/>
       <c r="AD233" s="8"/>
     </row>
-    <row r="234" spans="28:30">
+    <row r="234" hidden="1" spans="28:30">
       <c r="AB234" s="8"/>
       <c r="AD234" s="8"/>
     </row>
-    <row r="235" spans="28:30">
+    <row r="235" hidden="1" spans="28:30">
       <c r="AB235" s="8"/>
       <c r="AD235" s="8"/>
     </row>
-    <row r="236" spans="28:30">
+    <row r="236" hidden="1" spans="28:30">
       <c r="AB236" s="8"/>
       <c r="AD236" s="8"/>
     </row>
-    <row r="237" spans="28:30">
+    <row r="237" hidden="1" spans="28:30">
       <c r="AB237" s="8"/>
       <c r="AD237" s="8"/>
     </row>
-    <row r="238" spans="28:30">
+    <row r="238" hidden="1" spans="28:30">
       <c r="AB238" s="8"/>
       <c r="AD238" s="8"/>
     </row>
-    <row r="239" spans="30:30">
+    <row r="239" hidden="1" spans="30:30">
       <c r="AD239" s="8"/>
     </row>
-    <row r="240" spans="30:30">
+    <row r="240" hidden="1" spans="30:30">
       <c r="AD240" s="8"/>
     </row>
-    <row r="241" spans="30:30">
+    <row r="241" hidden="1" spans="30:30">
       <c r="AD241" s="8"/>
     </row>
-    <row r="242" spans="30:30">
+    <row r="242" hidden="1" spans="30:30">
       <c r="AD242" s="8"/>
     </row>
-    <row r="243" spans="30:30">
+    <row r="243" hidden="1" spans="30:30">
       <c r="AD243" s="8"/>
     </row>
-    <row r="244" spans="30:30">
+    <row r="244" hidden="1" spans="30:30">
       <c r="AD244" s="8"/>
     </row>
-    <row r="245" spans="30:30">
+    <row r="245" hidden="1" spans="30:30">
       <c r="AD245" s="8"/>
     </row>
-    <row r="246" spans="30:30">
+    <row r="246" hidden="1" spans="30:30">
       <c r="AD246" s="8"/>
     </row>
-    <row r="247" spans="30:30">
+    <row r="247" hidden="1" spans="30:30">
       <c r="AD247" s="8"/>
     </row>
-    <row r="248" spans="30:30">
+    <row r="248" hidden="1" spans="30:30">
       <c r="AD248" s="8"/>
     </row>
-    <row r="249" spans="30:30">
+    <row r="249" hidden="1" spans="30:30">
       <c r="AD249" s="8"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="P1:P249" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="U1:U249" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Yes, I work full-time"/>
+        <filter val="Yes, I work part-time"/>
+        <filter val="No, I do not work"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
